--- a/operations.xlsx
+++ b/operations.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="510" windowWidth="16935" windowHeight="2265"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="41">
   <si>
     <t>6km</t>
   </si>
@@ -143,39 +144,60 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$R$-416]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$R$-416]&quot; &quot;#,##0.00"/>
+  <numFmts count="3">
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="[$R$-416]\ #,##0.00;[RED]\-[$R$-416]\ #,##0.00" numFmtId="165"/>
+    <numFmt formatCode="GENERAL" numFmtId="166"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <i val="true"/>
+      <color rgb="00000000"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <i val="true"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <u val="single"/>
+    </font>
+    <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="3">
@@ -187,13 +209,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="00FFFFCC"/>
+        <bgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -201,351 +223,107 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center"/>
+  <cellStyleXfs count="24">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="90" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="165">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="6">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Heading" xfId="1"/>
-    <cellStyle name="Heading1" xfId="2"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="3"/>
-    <cellStyle name="Result2" xfId="4"/>
+  <cellStyles count="10">
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Heading 1" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Heading1 1" xfId="21"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Result 1" xfId="22"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Result2 1" xfId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A33" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="topLeft" topLeftCell="A33" xSplit="0" ySplit="-1"/>
+      <selection activeCell="F49" activeCellId="0" pane="topLeft" sqref="F49"/>
+      <selection activeCell="A33" activeCellId="0" pane="bottomLeft" sqref="A33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="7.25" customWidth="1"/>
-    <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5" customWidth="1"/>
-    <col min="6" max="6" width="14.375" customWidth="1"/>
-    <col min="7" max="7" width="2.5" customWidth="1"/>
-    <col min="8" max="8" width="10" customWidth="1"/>
-    <col min="9" max="9" width="2.5" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
-    <col min="11" max="11" width="2.5" customWidth="1"/>
-    <col min="12" max="12" width="11.75" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.30588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.0156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2196078431373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="2.51764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4823529411765"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="2.51764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.078431372549"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="2.51764705882353"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="2.51764705882353"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.67450980392157"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,147 +358,147 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="2" t="n">
         <v>6</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="D2" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="3">
+      <c r="F2" s="3" t="n">
         <v>3</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="3">
+      <c r="H2" s="3" t="n">
         <v>10800</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="3">
+      <c r="J2" s="3" t="n">
         <v>3000</v>
       </c>
       <c r="K2" s="2"/>
-      <c r="L2" s="3">
+      <c r="L2" s="3" t="n">
         <v>10800000</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
-      <c r="A3" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2">
+      <c r="D3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2">
+      <c r="H3" s="2" t="n">
         <v>5</v>
       </c>
       <c r="I3" s="2"/>
-      <c r="J3" s="2">
+      <c r="J3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" t="s">
+      <c r="L3" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2">
+      <c r="D4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2">
+      <c r="H4" s="2" t="n">
         <v>18</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2">
+      <c r="J4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="K4" s="2"/>
-      <c r="L4" s="2">
+      <c r="L4" s="2" t="n">
         <v>3600</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="D5" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="3">
+      <c r="H5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="3">
+      <c r="J5" s="3" t="n">
         <v>1</v>
       </c>
       <c r="K5" s="2"/>
-      <c r="L5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
+      <c r="L5" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2">
+      <c r="D6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="3">
+      <c r="H6" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="3">
+      <c r="J6" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="K6" s="2"/>
-      <c r="L6" s="3">
+      <c r="L6" s="3" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="7">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -729,7 +507,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="8">
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
@@ -748,97 +526,97 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>12</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2">
+      <c r="D9" s="2" t="n">
         <v>4</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="n">
         <v>3</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:12">
-      <c r="A10" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2">
+      <c r="D10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="n">
         <v>1000</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2">
+      <c r="D11" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="3">
+      <c r="F11" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2">
+      <c r="D12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2">
+      <c r="D13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="3">
+      <c r="F13" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="14">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -847,11 +625,11 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="15">
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="16">
       <c r="B16" s="1" t="s">
         <v>4</v>
       </c>
@@ -880,135 +658,135 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="n">
         <v>3</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="2">
+      <c r="D17" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E17" s="2"/>
-      <c r="F17" s="2">
+      <c r="F17" s="2" t="n">
         <v>6</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="3">
+      <c r="H17" s="3" t="n">
         <v>360000</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="3">
+      <c r="J17" s="3" t="n">
         <v>0.36</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2">
+      <c r="D18" s="2" t="n">
         <v>60</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" s="2">
+      <c r="F18" s="2" t="n">
         <v>60000</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="2">
+      <c r="H18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2">
+      <c r="J18" s="2" t="n">
         <v>1000000</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" s="2">
+      <c r="D19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2">
+      <c r="F19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="2">
+      <c r="H19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" t="s">
+      <c r="J19" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="20">
+      <c r="A20" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2">
+      <c r="D20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="2">
+      <c r="F20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="3">
+      <c r="H20" s="3" t="n">
         <v>1</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" t="s">
+      <c r="J20" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="21">
+      <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>-1</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2">
+      <c r="D21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E21" s="2"/>
-      <c r="F21" s="2">
+      <c r="F21" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="2"/>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="J21" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="22">
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="23">
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="24">
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
@@ -1027,105 +805,105 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="25">
+      <c r="A25" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2">
+      <c r="D25" s="2" t="n">
         <v>200</v>
       </c>
       <c r="E25" s="2"/>
-      <c r="F25" s="2">
+      <c r="F25" s="2" t="n">
         <v>2200</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="26">
+      <c r="A26" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" s="2">
+      <c r="D26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E26" s="2"/>
-      <c r="F26" s="2">
+      <c r="F26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="27">
+      <c r="A27" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2">
+      <c r="D27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="2">
+      <c r="F27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="28">
+      <c r="A28" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2">
+      <c r="D28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2">
+      <c r="F28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="29">
+      <c r="A29" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2">
+      <c r="D29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2">
+      <c r="F29" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="30">
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="31">
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="32">
       <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
@@ -1144,123 +922,123 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="33">
+      <c r="A33" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2">
+      <c r="D33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" s="3">
-        <f>(B33*B34/B35+D33*D34/D35)*F35/F34</f>
+      <c r="F33" s="3" t="n">
+        <f aca="false">(B33*B34/B35+D33*D34/D35)*F35/F34</f>
         <v>326168</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="3">
-        <f>F33*F34/F35</f>
-        <v>2609.3440000000001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" t="s">
+      <c r="H33" s="3" t="n">
+        <f aca="false">F33*F34/F35</f>
+        <v>2609.344</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="34">
+      <c r="A34" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="n">
         <v>1000</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2">
+      <c r="D34" s="2" t="n">
         <v>201168</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="4">
-        <v>1</v>
-      </c>
-      <c r="H34" s="2">
-        <v>1</v>
-      </c>
-      <c r="L34">
-        <f>F35/B35*B34+F35/D35*D34</f>
+      <c r="F34" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" s="5" t="n">
+        <f aca="false">F35/B35*B34+F35/D35*D34</f>
         <v>326168</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="35">
+      <c r="A35" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2">
+      <c r="D35" s="2" t="n">
         <v>125</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" s="3">
-        <f>LCM(B35,D35)</f>
+      <c r="F35" s="3" t="n">
+        <f aca="false">LCM_ADD(B35,D35)</f>
         <v>125</v>
       </c>
       <c r="G35" s="2"/>
-      <c r="H35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" t="s">
+      <c r="H35" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="36">
+      <c r="A36" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2">
+      <c r="D36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" s="3">
-        <f>D36</f>
+      <c r="F36" s="3" t="n">
+        <f aca="false">D36</f>
         <v>1</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37" t="s">
+      <c r="H36" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="37">
+      <c r="A37" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2">
+      <c r="D37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" s="3">
-        <f>D37</f>
+      <c r="F37" s="3" t="n">
+        <f aca="false">D37</f>
         <v>0</v>
       </c>
       <c r="G37" s="2"/>
-      <c r="H37" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="H37" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="38">
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="1:12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="39">
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
     </row>
-    <row r="40" spans="1:12" ht="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="40">
       <c r="B40" s="1" t="s">
         <v>28</v>
       </c>
@@ -1279,123 +1057,123 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
-      <c r="A41" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="41">
+      <c r="A41" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="2" t="n">
         <v>25</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="2">
+      <c r="D41" s="2" t="n">
         <v>18</v>
       </c>
       <c r="E41" s="2"/>
-      <c r="F41" s="3">
-        <f>B41*B42*F43/(F42*B43)+D41*D42*F43/(F42*D43)</f>
+      <c r="F41" s="3" t="n">
+        <f aca="false">B41*B42*F43/(F42*B43)+D41*D42*F43/(F42*D43)</f>
         <v>1825</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="3">
-        <f>F41*F42/F43</f>
+      <c r="H41" s="3" t="n">
+        <f aca="false">F41*F42/F43</f>
         <v>18.25</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
-      <c r="A42" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="42">
+      <c r="A42" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="2">
+      <c r="D42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="L42">
-        <f>F43/B43*B42+F43/D43*D42</f>
+      <c r="F42" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="5" t="n">
+        <f aca="false">F43/B43*B42+F43/D43*D42</f>
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
-      <c r="A43" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="43">
+      <c r="A43" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="2" t="n">
         <v>100</v>
       </c>
       <c r="C43" s="2"/>
-      <c r="D43" s="2">
+      <c r="D43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" s="3">
-        <f>LCM(B43,D43)</f>
+      <c r="F43" s="3" t="n">
+        <f aca="false">LCM_ADD(B43,D43)</f>
         <v>100</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" t="s">
+      <c r="H43" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="44">
+      <c r="A44" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C44" s="2"/>
-      <c r="D44" s="2">
+      <c r="D44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" s="3">
-        <f>D44</f>
+      <c r="F44" s="3" t="n">
+        <f aca="false">D44</f>
         <v>1</v>
       </c>
       <c r="G44" s="2"/>
-      <c r="H44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" t="s">
+      <c r="H44" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="45">
+      <c r="A45" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2">
+      <c r="D45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="3">
-        <f>D45</f>
+      <c r="F45" s="3" t="n">
+        <f aca="false">D45</f>
         <v>0</v>
       </c>
       <c r="G45" s="2"/>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="H45" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="46">
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
     </row>
-    <row r="47" spans="1:12">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="47">
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:12" ht="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="48">
       <c r="B48" s="1" t="s">
         <v>30</v>
       </c>
@@ -1408,9 +1186,7 @@
       <c r="E48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
         <v>3</v>
       </c>
@@ -1424,131 +1200,142 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="49">
+      <c r="A49" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="2" t="n">
         <v>50</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="2">
+      <c r="D49" s="2" t="n">
         <v>2</v>
       </c>
       <c r="E49" s="2"/>
-      <c r="F49" s="2">
+      <c r="F49" s="3" t="n">
+        <f aca="false">B49*D49</f>
         <v>100</v>
       </c>
       <c r="G49" s="2"/>
-      <c r="H49" s="3">
+      <c r="H49" s="3" t="n">
+        <f aca="false">F49*F50*H51/H50/F51</f>
         <v>1</v>
       </c>
       <c r="I49" s="2"/>
-      <c r="J49" s="3">
+      <c r="J49" s="3" t="n">
+        <f aca="false">H49*H50*J51/J50/H51</f>
         <v>10000</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="50">
+      <c r="A50" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2">
+      <c r="D50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="2">
+      <c r="F50" s="3" t="n">
+        <f aca="false">B50*D50</f>
         <v>1</v>
       </c>
       <c r="G50" s="2"/>
-      <c r="H50" s="2">
+      <c r="H50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I50" s="2"/>
-      <c r="J50" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" t="s">
+      <c r="J50" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="51">
+      <c r="A51" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="2" t="n">
         <v>100</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2">
+      <c r="D51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="2">
+      <c r="F51" s="3" t="n">
+        <f aca="false">B51*D51</f>
         <v>100</v>
       </c>
       <c r="G51" s="2"/>
-      <c r="H51" s="2">
+      <c r="H51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="I51" s="2"/>
-      <c r="J51" s="2">
+      <c r="J51" s="2" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="52">
+      <c r="A52" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="2">
+      <c r="D52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="2">
+      <c r="F52" s="3" t="n">
+        <f aca="false">B52+D52</f>
         <v>2</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="n">
+        <f aca="false">F52</f>
         <v>2</v>
       </c>
       <c r="I52" s="2"/>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="n">
+        <f aca="false">H52</f>
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="53">
+      <c r="A53" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2">
+      <c r="D53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="2">
+      <c r="F53" s="3" t="n">
+        <f aca="false">B53+D53</f>
         <v>0</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="3">
+      <c r="H53" s="3" t="n">
+        <f aca="false">F53</f>
         <v>0</v>
       </c>
       <c r="I53" s="2"/>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="J53" s="3" t="n">
+        <f aca="false">H53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="54">
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:10" ht="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="55">
       <c r="B55" s="1" t="s">
         <v>32</v>
       </c>
@@ -1567,97 +1354,97 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="56">
+      <c r="A56" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="2" t="n">
         <v>100</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2">
+      <c r="D56" s="2" t="n">
         <v>25</v>
       </c>
       <c r="E56" s="2"/>
-      <c r="F56" s="2">
+      <c r="F56" s="2" t="n">
         <v>4</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="57">
+      <c r="A57" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C57" s="2"/>
-      <c r="D57" s="2">
+      <c r="D57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E57" s="2"/>
-      <c r="F57" s="2">
+      <c r="F57" s="2" t="n">
         <v>100</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="58">
+      <c r="A58" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="2" t="n">
         <v>100</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="2">
+      <c r="D58" s="2" t="n">
         <v>100</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="2">
+      <c r="F58" s="2" t="n">
         <v>100</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="59">
+      <c r="A59" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="2">
+      <c r="D59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="2">
+      <c r="F59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="60">
+      <c r="A60" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="2">
+      <c r="D60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="2">
+      <c r="F60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
     </row>
-    <row r="63" spans="1:10" ht="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="63">
       <c r="B63" s="1" t="s">
         <v>35</v>
       </c>
@@ -1668,67 +1455,67 @@
         <v>36</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
-      <c r="A64" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="64">
+      <c r="A64" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="2" t="n">
         <v>10</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="3">
+      <c r="D64" s="3" t="n">
         <v>100000</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
-      <c r="A65" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="65">
+      <c r="A65" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" t="s">
+      <c r="D65" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="66">
+      <c r="A66" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="2">
+      <c r="D66" s="2" t="n">
         <v>10000</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
-      <c r="A67" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="67">
+      <c r="A67" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="3">
+      <c r="D67" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="68">
+      <c r="A68" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="2" t="n">
         <v>-2</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="3">
+      <c r="D68" s="3" t="n">
         <v>-2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="71">
       <c r="B71" s="1" t="s">
         <v>37</v>
       </c>
@@ -1751,110 +1538,111 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
-      <c r="A72" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="72">
+      <c r="A72" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="2" t="n">
         <v>10</v>
       </c>
       <c r="C72" s="2"/>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="n">
         <v>100000</v>
       </c>
       <c r="E72" s="2"/>
-      <c r="F72" s="3">
+      <c r="F72" s="3" t="n">
         <v>6000000</v>
       </c>
       <c r="G72" s="2"/>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="n">
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
-      <c r="A73" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="73">
+      <c r="A73" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C73" s="2"/>
-      <c r="D73" s="2">
+      <c r="D73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E73" s="2"/>
-      <c r="F73" s="2">
+      <c r="F73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G73" s="2"/>
-      <c r="H73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" t="s">
+      <c r="H73" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="74">
+      <c r="A74" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C74" s="2"/>
-      <c r="D74" s="2">
+      <c r="D74" s="2" t="n">
         <v>10000</v>
       </c>
       <c r="E74" s="2"/>
-      <c r="F74" s="2">
+      <c r="F74" s="2" t="n">
         <v>600000</v>
       </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="2">
+      <c r="H74" s="2" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
-      <c r="A75" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="75">
+      <c r="A75" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="D75" s="3">
+      <c r="D75" s="3" t="n">
         <v>2</v>
       </c>
       <c r="E75" s="2"/>
-      <c r="F75" s="3">
+      <c r="F75" s="3" t="n">
         <v>2</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="3">
+      <c r="H75" s="3" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="76">
+      <c r="A76" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="2" t="n">
         <v>-1</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="E76" s="2"/>
-      <c r="F76" s="3">
+      <c r="F76" s="3" t="n">
         <v>-1</v>
       </c>
       <c r="G76" s="2"/>
-      <c r="H76" s="3">
+      <c r="H76" s="3" t="n">
         <v>-1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0" right="0" top="0.39409448818897608" bottom="0.39409448818897608" header="0" footer="0"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <headerFooter>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0" right="0" top="0.394444444444444" bottom="0.394444444444444" header="0" footer="0"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>

--- a/operations.xlsx
+++ b/operations.xlsx
@@ -5,14 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="392" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="257" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="true" hidden="false" name="LCM" vbProcedure="true"/>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
@@ -236,7 +233,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
@@ -247,7 +244,6 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -274,20 +270,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.03137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="2.53333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5882352941176"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="2.53333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1529411764706"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="2.53333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.56470588235294"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="2.53333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.9333333333333"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.56470588235294"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.73725490196078"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.04705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="2.54901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="2.54901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2274509803922"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="2.54901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.63137254901961"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="2.54901960784314"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.0313725490196"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.63137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.80392156862745"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
@@ -929,7 +925,7 @@
       <c r="H34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L34" s="4" t="n">
+      <c r="L34" s="0" t="n">
         <f aca="false">F35/B35*B34+F35/D35*D34</f>
         <v>326168</v>
       </c>
@@ -947,7 +943,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="n">
-        <f aca="false">LCM(B35,D35)</f>
+        <f aca="false">LCM_ADD(B35,D35)</f>
         <v>125</v>
       </c>
       <c r="G35" s="2"/>
@@ -1064,7 +1060,7 @@
       <c r="H42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L42" s="4" t="n">
+      <c r="L42" s="0" t="n">
         <f aca="false">F43/B43*B42+F43/D43*D42</f>
         <v>101</v>
       </c>
@@ -1082,7 +1078,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="3" t="n">
-        <f aca="false">LCM(B43,D43)</f>
+        <f aca="false">LCM_ADD(B43,D43)</f>
         <v>100</v>
       </c>
       <c r="G43" s="2"/>

--- a/operations.xlsx
+++ b/operations.xlsx
@@ -5,17 +5,20 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="392" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="true" hidden="false" name="LCM" vbProcedure="true"/>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
   <si>
     <t>6km</t>
   </si>
@@ -138,18 +141,22 @@
   </si>
   <si>
     <t>600m²/min</t>
+  </si>
+  <si>
+    <t>sqrt(49km²)</t>
+  </si>
+  <si>
+    <t>7000m²</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="[$R$-416]\ #,##0.00;[RED]\-[$R$-416]\ #,##0.00" numFmtId="165"/>
-    <numFmt formatCode="GENERAL" numFmtId="166"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -171,25 +178,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <i val="true"/>
-      <color rgb="00000000"/>
-      <sz val="16"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <b val="true"/>
-      <i val="true"/>
-      <color rgb="00000000"/>
-      <sz val="11"/>
-      <u val="single"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -223,7 +211,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="20">
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -247,26 +235,10 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="90" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="5" numFmtId="165">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -275,22 +247,15 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="2" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
     <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
     <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
     <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Heading 1" xfId="20"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Heading1 1" xfId="21"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Result 1" xfId="22"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Result2 1" xfId="23"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -300,27 +265,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A33" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <pane activePane="topLeft" topLeftCell="A33" xSplit="0" ySplit="-1"/>
-      <selection activeCell="F49" activeCellId="0" pane="topLeft" sqref="F49"/>
-      <selection activeCell="A33" activeCellId="0" pane="bottomLeft" sqref="A33"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A64" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <pane activePane="topLeft" topLeftCell="A64" xSplit="0" ySplit="-1"/>
+      <selection activeCell="D80" activeCellId="0" pane="topLeft" sqref="D80"/>
+      <selection activeCell="A64" activeCellId="0" pane="bottomLeft" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.30588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.0156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2196078431373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="2.51764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="2.51764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.078431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="2.51764705882353"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="2.51764705882353"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.67450980392157"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="2.03137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="2.53333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5882352941176"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="2.53333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1529411764706"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="2.53333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.56470588235294"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="2.53333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.9333333333333"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.56470588235294"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.73725490196078"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="1">
@@ -956,13 +923,13 @@
         <v>201168</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="4" t="n">
+      <c r="F34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L34" s="5" t="n">
+      <c r="L34" s="4" t="n">
         <f aca="false">F35/B35*B34+F35/D35*D34</f>
         <v>326168</v>
       </c>
@@ -980,7 +947,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="3" t="n">
-        <f aca="false">LCM_ADD(B35,D35)</f>
+        <f aca="false">LCM(B35,D35)</f>
         <v>125</v>
       </c>
       <c r="G35" s="2"/>
@@ -1091,13 +1058,13 @@
         <v>1</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="4" t="n">
+      <c r="F42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L42" s="5" t="n">
+      <c r="L42" s="4" t="n">
         <f aca="false">F43/B43*B42+F43/D43*D42</f>
         <v>101</v>
       </c>
@@ -1115,7 +1082,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="3" t="n">
-        <f aca="false">LCM_ADD(B43,D43)</f>
+        <f aca="false">LCM(B43,D43)</f>
         <v>100</v>
       </c>
       <c r="G43" s="2"/>
@@ -1636,6 +1603,80 @@
       <c r="G76" s="2"/>
       <c r="H76" s="3" t="n">
         <v>-1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="79">
+      <c r="B79" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="80">
+      <c r="A80" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="3" t="n">
+        <f aca="false">SQRT(B80*B81)</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="81">
+      <c r="A81" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="82">
+      <c r="A82" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="83">
+      <c r="A83" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="3" t="n">
+        <f aca="false">B83/2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14" outlineLevel="0" r="84">
+      <c r="A84" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="3" t="n">
+        <f aca="false">B84/2</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
